--- a/one up/普物實驗/Lab8 角速度、外加力矩及轉動慣量關係/E24146107_王翊權_預報8_表格.xlsx
+++ b/one up/普物實驗/Lab8 角速度、外加力矩及轉動慣量關係/E24146107_王翊權_預報8_表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\one up\普物實驗\Lab8 角速度、外加力矩及轉動慣量關係\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE20F71-DB25-415D-8488-6EA90E1E34F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAABB7E4-3211-4DA5-BC2E-D0BD0930D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{F8697BF3-F2B8-4E38-A2DC-9272F9073013}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" xr2:uid="{F8697BF3-F2B8-4E38-A2DC-9272F9073013}"/>
   </bookViews>
   <sheets>
     <sheet name="定力矩角加速度" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,34 @@
   </si>
   <si>
     <t>I'\alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理論力矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測量力矩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I+I'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2\theta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,8 +189,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -189,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -213,11 +242,48 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -227,15 +293,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,23 +303,38 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -276,6 +351,984 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5247594050743651E-2"/>
+          <c:y val="0.13004629629629633"/>
+          <c:w val="0.87764129483814524"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>定力矩角加速度!$I$6:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22.404444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.313344444444439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.95484444444445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.96804444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215.50239999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>332.69759999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>414.66534444444443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>定力矩角加速度!$D$6:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5707963267948966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1415926535897931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2831853071795862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4247779607693793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.566370614359172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.849555921538759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.132741228718345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-04E3-4C68-84D4-088CFF2FA85E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1257650703"/>
+        <c:axId val="1257648783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1257650703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1257648783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1257648783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1257650703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD8E2BB-A0C0-F5B2-C109-811CBC933E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,166 +1648,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90FCF6F-6B95-454C-B432-CB8380330A02}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.56759999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3">
+      <c r="J4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="4">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <f>B6*PI()*2</f>
         <v>0.78539816339744828</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="4">
+      <c r="D6" s="4">
+        <f>2*C6</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.66</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.66</v>
+      </c>
+      <c r="H6" s="4">
+        <f>AVERAGE(E6:G6)</f>
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="I6" s="4">
+        <f>H6^2</f>
+        <v>22.404444444444444</v>
+      </c>
+      <c r="J6" s="13">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="K6">
+        <f>10*978*B$3</f>
+        <v>5551.1279999999997</v>
+      </c>
+      <c r="L6">
+        <v>112500</v>
+      </c>
+      <c r="M6">
+        <f>K6/J6-L6</f>
+        <v>-17932.231686541752</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:C12" si="0">B7*PI()*2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="4">
+      <c r="D7" s="4">
+        <f t="shared" ref="D7:D12" si="1">2*C7</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7.18</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7.09</v>
+      </c>
+      <c r="G7" s="8">
+        <v>7.22</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7:H12" si="2">AVERAGE(E7:G7)</f>
+        <v>7.1633333333333331</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ref="I7:I12" si="3">H7^2</f>
+        <v>51.313344444444439</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>3.1415926535897931</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="4">
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10.16</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10.06</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>10.146666666666667</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="3"/>
+        <v>102.95484444444445</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
         <f>3/4</f>
         <v>0.75</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>4.7123889803846897</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="4">
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>9.4247779607693793</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="F9" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="G9" s="8">
+        <v>12.78</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>12.726666666666667</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="3"/>
+        <v>161.96804444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>6.2831853071795862</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="4">
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>12.566370614359172</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14.94</v>
+      </c>
+      <c r="F10" s="8">
+        <v>14.56</v>
+      </c>
+      <c r="G10" s="8">
+        <v>14.54</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>14.68</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="3"/>
+        <v>215.50239999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
         <f>3/2</f>
         <v>1.5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>9.4247779607693793</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="4">
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>18.849555921538759</v>
+      </c>
+      <c r="E11" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="G11" s="8">
+        <v>18.21</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="3"/>
+        <v>332.69759999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>12.566370614359172</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>25.132741228718345</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20.13</v>
+      </c>
+      <c r="F12" s="8">
+        <v>20.59</v>
+      </c>
+      <c r="G12" s="8">
+        <v>20.37</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>20.363333333333333</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="3"/>
+        <v>414.66534444444443</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -763,119 +1973,174 @@
   <dimension ref="C4:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C5" s="2">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C9" s="2" t="s">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8">
+        <v>14.94</v>
+      </c>
+      <c r="F6" s="9">
+        <f>AVERAGE(E6:E8)</f>
+        <v>14.68</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10.91</v>
+      </c>
+      <c r="H6" s="5">
+        <f>AVERAGE(G6:G8)</f>
+        <v>10.866666666666667</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8.68</v>
+      </c>
+      <c r="J6" s="5">
+        <f>AVERAGE(I6:I8)</f>
+        <v>8.8199999999999985</v>
+      </c>
+      <c r="K6" s="4">
+        <v>7.66</v>
+      </c>
+      <c r="L6" s="5">
+        <f>AVERAGE(K6:K8)</f>
+        <v>7.6466666666666674</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8">
+        <v>14.56</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4">
+        <v>10.94</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8">
+        <v>14.54</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4">
+        <v>8.91</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4">
+        <v>7.78</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <f>PI()*2/(F6^2)</f>
+        <v>2.9155987623244967E-2</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <f t="shared" ref="G9:L9" si="0">PI()*2/(H6^2)</f>
+        <v>5.3209254925492368E-2</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:L9" si="1">PI()*2/(J6^2)</f>
+        <v>8.0768626590509984E-2</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <f t="shared" ref="K9:L9" si="2">PI()*2/(L6^2)</f>
+        <v>0.10745720758336304</v>
+      </c>
+      <c r="L9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="L6:L8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
@@ -884,13 +2149,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="L6:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -899,119 +2157,197 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4290816C-F336-4A96-8A1B-41FBC2D0FF67}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
+      <c r="K4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="4">
+        <f>0.5*1000*15*15</f>
+        <v>112500</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>8.68</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="H6" s="4">
+        <v>8.91</v>
+      </c>
+      <c r="I6" s="4">
+        <f>AVERAGE(F6:H6)</f>
+        <v>8.8199999999999985</v>
+      </c>
+      <c r="J6" s="4">
+        <f>2*PI()/I6^2</f>
+        <v>8.0768626590509984E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <f>J6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <f>D6+1000*(15^2+12^2)/2</f>
+        <v>297000</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="5">
+        <v>13.88</v>
+      </c>
+      <c r="G7" s="5">
+        <v>13.91</v>
+      </c>
+      <c r="H7" s="5">
+        <v>13.88</v>
+      </c>
+      <c r="I7" s="5">
+        <f>AVERAGE(F7:G9)</f>
+        <v>13.0625</v>
+      </c>
+      <c r="J7" s="5">
+        <f>2*PI()/I7^2</f>
+        <v>3.6823686239737509E-2</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4">
+        <f>2*D6</f>
+        <v>225000</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>12.12</v>
+      </c>
+      <c r="G9" s="4">
+        <v>12.34</v>
+      </c>
+      <c r="H9" s="4">
+        <v>12.09</v>
+      </c>
+      <c r="I9" s="4">
+        <f>AVERAGE(F9:H9)</f>
+        <v>12.183333333333332</v>
+      </c>
+      <c r="J9" s="4">
+        <f>2*PI()/I9^2</f>
+        <v>4.2329936327401355E-2</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H7:H8"/>
+  <mergeCells count="20">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,172 +2358,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F914B99-1D5B-4C2D-B581-B7B63DB4D916}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="10" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="7" t="s">
+      <c r="D6" s="5">
+        <f>1000*0.5*15*15+2*(1000*(11/4)^2+1000*15/2)</f>
+        <v>142625</v>
+      </c>
+      <c r="E6" s="5">
+        <v>12.28</v>
+      </c>
+      <c r="F6" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12.53</v>
+      </c>
+      <c r="H6" s="5">
+        <f>AVERAGE(E6:F8)</f>
+        <v>12.38</v>
+      </c>
+      <c r="I6" s="5">
+        <f>2*PI()/H6^2</f>
+        <v>4.099572573395769E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <f>1000*0.5*15*15+2*(250*(3/2)^2+250*15)</f>
+        <v>121125</v>
+      </c>
+      <c r="E8" s="5">
+        <v>12.39</v>
+      </c>
+      <c r="F8" s="5">
+        <v>12.35</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12.47</v>
+      </c>
+      <c r="H8" s="5">
+        <f>AVERAGE(E8:F10)</f>
+        <v>12.370000000000001</v>
+      </c>
+      <c r="I8" s="5">
+        <f>2*PI()/H8^2</f>
+        <v>4.1062035024755993E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="6" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="6" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="6" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
@@ -1197,18 +2574,7 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/one up/普物實驗/Lab8 角速度、外加力矩及轉動慣量關係/E24146107_王翊權_預報8_表格.xlsx
+++ b/one up/普物實驗/Lab8 角速度、外加力矩及轉動慣量關係/E24146107_王翊權_預報8_表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\one up\普物實驗\Lab8 角速度、外加力矩及轉動慣量關係\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAABB7E4-3211-4DA5-BC2E-D0BD0930D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45FA1FFC-DF26-4447-A846-C281D6330A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" xr2:uid="{F8697BF3-F2B8-4E38-A2DC-9272F9073013}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{F8697BF3-F2B8-4E38-A2DC-9272F9073013}"/>
   </bookViews>
   <sheets>
     <sheet name="定力矩角加速度" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="驗證平行軸定理" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>r</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,20 +64,6 @@
   <si>
     <t>t^2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力矩10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力矩20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力矩30</t>
-  </si>
-  <si>
-    <t>力矩40</t>
   </si>
   <si>
     <t>平均</t>
@@ -177,11 +164,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I+I'</t>
+    <t>2\theta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2\theta</t>
+    <t>1/I'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,11 +180,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,6 +197,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -277,23 +278,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,23 +311,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,12 +353,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,6 +388,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -375,9 +426,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.5247594050743651E-2"/>
-          <c:y val="0.13004629629629633"/>
+          <c:y val="0.13446342617066862"/>
           <c:w val="0.87764129483814524"/>
-          <c:h val="0.72125801983085447"/>
+          <c:h val="0.71684114242786801"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -487,25 +538,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22.404444444444444</c:v>
+                  <c:v>23.457877777777774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.313344444444439</c:v>
+                  <c:v>52.901377777777739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.95484444444445</c:v>
+                  <c:v>105.1992111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>161.96804444444444</c:v>
+                  <c:v>164.78001111111104</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215.50239999999999</c:v>
+                  <c:v>218.74409999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>332.69759999999997</c:v>
+                  <c:v>336.72249999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>414.66534444444443</c:v>
+                  <c:v>419.15737777777775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +785,715 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>驗證角加速度與外加力矩成正比!$E$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>驗證角加速度與外加力矩成正比!$E$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8311975246489935E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10641850985098474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16153725318101997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21491441516672607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A13-44C4-9BF9-E8ECB6F73C90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2046693775"/>
+        <c:axId val="2046694255"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2046693775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046694255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2046694255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2046693775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表3!$F$6:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>8.751353302057018E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3470782077603903E-6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>4.4097924669833833E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表3!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.16153725318101997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3647372479475018E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4659872654802709E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-307C-48E0-ABA8-1F4B66D61190}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1189797551"/>
+        <c:axId val="1189798031"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1189797551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189798031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1189798031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1189797551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1290,20 +2049,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1311,6 +3102,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD8E2BB-A0C0-F5B2-C109-811CBC933E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B2625F-E52F-6275-A6C5-6FEDF3F89795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59AE0E14-A883-6214-8889-76DC683861CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,62 +3521,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90FCF6F-6B95-454C-B432-CB8380330A02}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3">
-        <v>0.56759999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="7" t="s">
+      <c r="J4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="L4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -1713,14 +3589,14 @@
       <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
         <f>1/8</f>
         <v>0.125</v>
@@ -1733,39 +3609,39 @@
         <f>2*C6</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="E6" s="8">
-        <v>4.66</v>
-      </c>
-      <c r="F6" s="8">
-        <v>4.88</v>
-      </c>
-      <c r="G6" s="8">
-        <v>4.66</v>
+      <c r="E6" s="5">
+        <v>4.7699999999999987</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.9899999999999984</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.7699999999999987</v>
       </c>
       <c r="H6" s="4">
         <f>AVERAGE(E6:G6)</f>
-        <v>4.7333333333333334</v>
+        <v>4.8433333333333328</v>
       </c>
       <c r="I6" s="4">
         <f>H6^2</f>
-        <v>22.404444444444444</v>
-      </c>
-      <c r="J6" s="13">
-        <v>5.8700000000000002E-2</v>
+        <v>23.457877777777774</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="K6">
         <f>10*978*B$3</f>
-        <v>5551.1279999999997</v>
+        <v>6650.4000000000005</v>
       </c>
       <c r="L6">
         <v>112500</v>
       </c>
       <c r="M6">
         <f>K6/J6-L6</f>
-        <v>-17932.231686541752</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1768.0412371134153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="2">
         <f>1/4</f>
         <v>0.25</v>
@@ -1778,25 +3654,29 @@
         <f t="shared" ref="D7:D12" si="1">2*C7</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="E7" s="8">
-        <v>7.18</v>
-      </c>
-      <c r="F7" s="8">
-        <v>7.09</v>
-      </c>
-      <c r="G7" s="8">
-        <v>7.22</v>
+      <c r="E7" s="5">
+        <v>7.2899999999999983</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7.1999999999999984</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7.3299999999999983</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" ref="H7:H12" si="2">AVERAGE(E7:G7)</f>
-        <v>7.1633333333333331</v>
+        <v>7.2733333333333308</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" ref="I7:I12" si="3">H7^2</f>
-        <v>51.313344444444439</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>52.901377777777739</v>
+      </c>
+      <c r="K7">
+        <f>10*(978-B$3*0.0582)*B$3</f>
+        <v>6650.1308832000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <f>1/2</f>
         <v>0.5</v>
@@ -1809,25 +3689,29 @@
         <f t="shared" si="1"/>
         <v>6.2831853071795862</v>
       </c>
-      <c r="E8" s="8">
-        <v>10.16</v>
-      </c>
-      <c r="F8" s="8">
-        <v>10.06</v>
-      </c>
-      <c r="G8" s="8">
-        <v>10.220000000000001</v>
+      <c r="E8" s="5">
+        <v>10.269999999999998</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10.169999999999998</v>
+      </c>
+      <c r="G8" s="5">
+        <v>10.329999999999998</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="2"/>
-        <v>10.146666666666667</v>
+        <v>10.256666666666666</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="3"/>
-        <v>102.95484444444445</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>105.1992111111111</v>
+      </c>
+      <c r="K8" s="9">
+        <f>ABS(K7-K6)/K6</f>
+        <v>4.0466257668729671E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <f>3/4</f>
         <v>0.75</v>
@@ -1840,25 +3724,25 @@
         <f t="shared" si="1"/>
         <v>9.4247779607693793</v>
       </c>
-      <c r="E9" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="F9" s="8">
-        <v>12.8</v>
-      </c>
-      <c r="G9" s="8">
-        <v>12.78</v>
+      <c r="E9" s="5">
+        <v>12.709999999999997</v>
+      </c>
+      <c r="F9" s="5">
+        <v>12.909999999999998</v>
+      </c>
+      <c r="G9" s="5">
+        <v>12.889999999999997</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="2"/>
-        <v>12.726666666666667</v>
+        <v>12.836666666666664</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="3"/>
-        <v>161.96804444444444</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>164.78001111111104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -1870,25 +3754,25 @@
         <f t="shared" si="1"/>
         <v>12.566370614359172</v>
       </c>
-      <c r="E10" s="8">
-        <v>14.94</v>
-      </c>
-      <c r="F10" s="8">
-        <v>14.56</v>
-      </c>
-      <c r="G10" s="8">
-        <v>14.54</v>
+      <c r="E10" s="5">
+        <v>15.049999999999997</v>
+      </c>
+      <c r="F10" s="5">
+        <v>14.669999999999998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>14.649999999999997</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="2"/>
-        <v>14.68</v>
+        <v>14.789999999999997</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>215.50239999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>218.74409999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
         <f>3/2</f>
         <v>1.5</v>
@@ -1901,25 +3785,25 @@
         <f t="shared" si="1"/>
         <v>18.849555921538759</v>
       </c>
-      <c r="E11" s="8">
-        <v>18.2</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="5">
         <v>18.309999999999999</v>
       </c>
-      <c r="G11" s="8">
-        <v>18.21</v>
+      <c r="F11" s="5">
+        <v>18.419999999999998</v>
+      </c>
+      <c r="G11" s="5">
+        <v>18.32</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="2"/>
-        <v>18.239999999999998</v>
+        <v>18.349999999999998</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="3"/>
-        <v>332.69759999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>336.72249999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -1931,23 +3815,63 @@
         <f t="shared" si="1"/>
         <v>25.132741228718345</v>
       </c>
-      <c r="E12" s="8">
-        <v>20.13</v>
-      </c>
-      <c r="F12" s="8">
-        <v>20.59</v>
-      </c>
-      <c r="G12" s="8">
-        <v>20.37</v>
+      <c r="E12" s="5">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <v>20.7</v>
+      </c>
+      <c r="G12" s="5">
+        <v>20.48</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="2"/>
-        <v>20.363333333333333</v>
+        <v>20.473333333333333</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="3"/>
-        <v>414.66534444444443</v>
-      </c>
+        <v>419.15737777777775</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1973,164 +3897,164 @@
   <dimension ref="C4:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
+        <v>20</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12">
+        <v>30</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12">
+        <v>40</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5">
         <v>14.94</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="15">
         <f>AVERAGE(E6:E8)</f>
         <v>14.68</v>
       </c>
       <c r="G6" s="4">
         <v>10.91</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="12">
         <f>AVERAGE(G6:G8)</f>
         <v>10.866666666666667</v>
       </c>
       <c r="I6" s="4">
         <v>8.68</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="12">
         <f>AVERAGE(I6:I8)</f>
         <v>8.8199999999999985</v>
       </c>
       <c r="K6" s="4">
         <v>7.66</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="12">
         <f>AVERAGE(K6:K8)</f>
         <v>7.6466666666666674</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5">
         <v>14.56</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="4">
         <v>10.94</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="4">
         <v>8.8699999999999992</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="4">
         <v>7.5</v>
       </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8">
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5">
         <v>14.54</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="4">
         <v>10.75</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="4">
         <v>8.91</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="4">
         <v>7.78</v>
       </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <f>PI()*2/(F6^2)</f>
-        <v>2.9155987623244967E-2</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <f t="shared" ref="G9:L9" si="0">PI()*2/(H6^2)</f>
-        <v>5.3209254925492368E-2</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
-        <f t="shared" ref="I9:L9" si="1">PI()*2/(J6^2)</f>
-        <v>8.0768626590509984E-2</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5">
-        <f t="shared" ref="K9:L9" si="2">PI()*2/(L6^2)</f>
-        <v>0.10745720758336304</v>
-      </c>
-      <c r="L9" s="5"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <f>PI()*4/(F6^2)</f>
+        <v>5.8311975246489935E-2</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
+        <f>PI()*4/(H6^2)</f>
+        <v>0.10641850985098474</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12">
+        <f>PI()*4/(J6^2)</f>
+        <v>0.16153725318101997</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
+        <f>PI()*4/(L6^2)</f>
+        <v>0.21491441516672607</v>
+      </c>
+      <c r="L9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2152,205 +4076,261 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4290816C-F336-4A96-8A1B-41FBC2D0FF67}">
-  <dimension ref="B2:L9"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>0.68</v>
+      </c>
+      <c r="C3">
+        <v>1768.04123711342</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="4">
         <f>0.5*1000*15*15</f>
         <v>112500</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <f>D6+C$3</f>
+        <v>114268.04123711342</v>
+      </c>
       <c r="F6" s="4">
+        <f>1/E6</f>
+        <v>8.751353302057018E-6</v>
+      </c>
+      <c r="G6" s="4">
         <v>8.68</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>8.8699999999999992</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>8.91</v>
       </c>
-      <c r="I6" s="4">
-        <f>AVERAGE(F6:H6)</f>
+      <c r="J6" s="4">
+        <f>AVERAGE(G6:I6)</f>
         <v>8.8199999999999985</v>
       </c>
-      <c r="J6" s="4">
-        <f>2*PI()/I6^2</f>
-        <v>8.0768626590509984E-2</v>
-      </c>
       <c r="K6" s="4">
-        <f>J6*E6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5">
+        <f>4*PI()/J6^2</f>
+        <v>0.16153725318101997</v>
+      </c>
+      <c r="L6" s="4">
+        <f>30*978*B$3</f>
+        <v>19951.2</v>
+      </c>
+      <c r="M6" s="4">
+        <f>K6*E6</f>
+        <v>18458.545507818821</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
         <f>D6+1000*(15^2+12^2)/2</f>
         <v>297000</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="5">
+      <c r="E7" s="17">
+        <f>D7+C3</f>
+        <v>298768.04123711342</v>
+      </c>
+      <c r="F7" s="19">
+        <f>1/E7</f>
+        <v>3.3470782077603903E-6</v>
+      </c>
+      <c r="G7" s="12">
         <v>13.88</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="12">
         <v>13.91</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="12">
         <v>13.88</v>
       </c>
-      <c r="I7" s="5">
-        <f>AVERAGE(F7:G9)</f>
+      <c r="J7" s="12">
+        <f>AVERAGE(G7:H9)</f>
         <v>13.0625</v>
       </c>
-      <c r="J7" s="5">
-        <f>2*PI()/I7^2</f>
-        <v>3.6823686239737509E-2</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="K7" s="12">
+        <f>4*PI()/J7^2</f>
+        <v>7.3647372479475018E-2</v>
+      </c>
+      <c r="L7" s="17">
+        <v>19951.2</v>
+      </c>
+      <c r="M7" s="17">
+        <f>E7*K7</f>
+        <v>22003.481217952845</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="16"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="4">
         <f>2*D6</f>
         <v>225000</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <f>D9+C$3</f>
+        <v>226768.04123711342</v>
+      </c>
       <c r="F9" s="4">
+        <f>1/E9</f>
+        <v>4.4097924669833833E-6</v>
+      </c>
+      <c r="G9" s="4">
         <v>12.12</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>12.34</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>12.09</v>
       </c>
-      <c r="I9" s="4">
-        <f>AVERAGE(F9:H9)</f>
+      <c r="J9" s="4">
+        <f>AVERAGE(G9:I9)</f>
         <v>12.183333333333332</v>
       </c>
-      <c r="J9" s="4">
-        <f>2*PI()/I9^2</f>
-        <v>4.2329936327401355E-2</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="4">
+        <f>4*PI()/J9^2</f>
+        <v>8.4659872654802709E-2</v>
+      </c>
+      <c r="L9" s="4">
+        <f>30*978*B$3</f>
+        <v>19951.2</v>
+      </c>
+      <c r="M9" s="4">
+        <f>K9*E9</f>
+        <v>19198.153493313072</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="J4:J5"/>
+  <mergeCells count="22">
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2358,199 +4338,267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F914B99-1D5B-4C2D-B581-B7B63DB4D916}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>0.68</v>
+      </c>
+      <c r="C3">
+        <v>1768.04123711342</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <f>1000*0.5*15*15+2*(1000*(11/4)^2+1000*15/2)</f>
-        <v>142625</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="12">
+        <f>1000*0.5*15*15+2*(1000*(11/4)^2/2+1000*(15/2)^2)+C3</f>
+        <v>234330.54123711342</v>
+      </c>
+      <c r="E6" s="12">
         <v>12.28</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="12">
         <v>12.5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="12">
         <v>12.53</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="12">
         <f>AVERAGE(E6:F8)</f>
         <v>12.38</v>
       </c>
-      <c r="I6" s="5">
-        <f>2*PI()/H6^2</f>
-        <v>4.099572573395769E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
-        <f>1000*0.5*15*15+2*(250*(3/2)^2+250*15)</f>
-        <v>121125</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="I6" s="12">
+        <f>4*PI()/H6^2</f>
+        <v>8.199145146791538E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
+        <f>1000*0.5*15*15+2*(250*(3/2)^2/2+250*15^2)+C3</f>
+        <v>227330.54123711342</v>
+      </c>
+      <c r="E8" s="12">
         <v>12.39</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="12">
         <v>12.35</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="12">
         <v>12.47</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="12">
         <f>AVERAGE(E8:F10)</f>
         <v>12.370000000000001</v>
       </c>
-      <c r="I8" s="5">
-        <f>2*PI()/H8^2</f>
-        <v>4.1062035024755993E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="12">
+        <f>4*PI()/H8^2</f>
+        <v>8.2124070049511985E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <f>30*0.68*978</f>
+        <v>19951.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
+        <v>114268.04123711342</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.16153725318101997</v>
+      </c>
+      <c r="E15" s="4">
+        <f>C15*D15</f>
+        <v>18458.545507818821</v>
+      </c>
+      <c r="F15" s="4">
+        <f>B$12/E15</f>
+        <v>1.0808652280619244</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4">
+        <v>298768.04123711342</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7.3647372479475018E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <f>C16*D16</f>
+        <v>22003.481217952845</v>
+      </c>
+      <c r="F16" s="4">
+        <f>B$12/E16</f>
+        <v>0.90672924899363794</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="C17" s="4">
+        <v>226768.04123711342</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8.4659872654802709E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <f>D17*C17</f>
+        <v>19198.153493313072</v>
+      </c>
+      <c r="F17" s="4">
+        <f>B$12/E17</f>
+        <v>1.0392249445734052</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="C18" s="1">
+        <f>D6</f>
+        <v>234330.54123711342</v>
+      </c>
+      <c r="D18" s="4">
+        <v>8.199145146791538E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <f>C18*D18</f>
+        <v>19213.101199293127</v>
+      </c>
+      <c r="F18" s="4">
+        <f>B$12/E18</f>
+        <v>1.0384164322589438</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C19" s="1">
+        <f>D8</f>
+        <v>227330.54123711342</v>
+      </c>
+      <c r="D19" s="4">
+        <v>8.2124070049511985E-2</v>
+      </c>
+      <c r="E19" s="4">
+        <f>C19*D19</f>
+        <v>18669.309292950176</v>
+      </c>
+      <c r="F19" s="4">
+        <f>B$12/E19</f>
+        <v>1.0686629958792255</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="11"/>
+      <c r="C20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
